--- a/inst/AASP_description_data.xlsx
+++ b/inst/AASP_description_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0abcc15bdc5c59/GitHub/dCUR/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0abcc15bdc5c59/GitHub/Paquetes/dCUR/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{2D032CC8-5545-4FD3-8477-DB7E537A9024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{409E78BC-23B8-4887-8559-B5CCC9A74D37}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="9" r:id="rId1"/>
@@ -2935,10 +2935,10 @@
   <dimension ref="A1:V206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
